--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="190">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>defective</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>difficult</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
@@ -73,313 +79,334 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>recipes</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>sauce</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>handy</t>
   </si>
   <si>
     <t>everyday</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>bun</t>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>owned</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>apple</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>baking</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>owned</t>
-  </si>
-  <si>
-    <t>va</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>cook</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>hen</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>dough</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fan</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
-    <t>durable</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
   <si>
     <t>cu</t>
   </si>
   <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
     <t>quick</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>grip</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gr</t>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>brand</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>spoon</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>bowl</t>
+    <t>wash</t>
+  </si>
+  <si>
+    <t>easier</t>
   </si>
   <si>
     <t>bought</t>
@@ -388,190 +415,169 @@
     <t>fast</t>
   </si>
   <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>making</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>everything</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>hot</t>
+    <t>food</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>go</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>cups</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>sure</t>
   </si>
   <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>ox</t>
+    <t>long</t>
+  </si>
+  <si>
+    <t>easily</t>
   </si>
   <si>
     <t>pretty</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>anyone</t>
+    <t>know</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
     <t>job</t>
   </si>
   <si>
-    <t>got</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>came</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>needed</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
     <t>still</t>
   </si>
   <si>
-    <t>came</t>
-  </si>
-  <si>
-    <t>fine</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>looking</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>get</t>
   </si>
   <si>
     <t>would</t>
@@ -943,10 +949,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1025,16 +1031,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1046,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1054,13 +1060,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7037037037037037</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1072,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1096,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1104,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1122,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.946236559139785</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1146,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1154,13 +1160,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4716981132075472</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1172,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1196,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1204,13 +1210,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3875968992248062</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1222,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8913043478260869</v>
+        <v>0.8828125</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1246,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1254,13 +1260,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3131313131313131</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1272,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L8">
-        <v>112</v>
+        <v>558</v>
       </c>
       <c r="M8">
-        <v>112</v>
+        <v>558</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1296,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1304,37 +1310,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2948717948717949</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8695652173913043</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1346,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1354,38 +1360,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2352941176470588</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>54</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="L10">
         <v>16</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>52</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.8622291021671826</v>
-      </c>
-      <c r="L10">
-        <v>557</v>
-      </c>
-      <c r="M10">
-        <v>557</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1404,13 +1410,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2162162162162162</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1422,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1446,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1454,37 +1460,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1496,21 +1502,45 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1837837837837838</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>151</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1526,17 +1556,41 @@
       </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.145631067961165</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>88</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7402597402597403</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="L14">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1548,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7316017316017316</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L15">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="M15">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1574,47 +1628,47 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L16">
+        <v>56</v>
+      </c>
+      <c r="M16">
+        <v>56</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>21</v>
-      </c>
-      <c r="M16">
-        <v>21</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.7192982456140351</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1626,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.7123287671232876</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M18">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1652,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K19">
         <v>0.6923076923076923</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1678,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.688135593220339</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L20">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1704,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6875</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1730,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6857142857142857</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1756,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6709470304975923</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>836</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>836</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1782,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K24">
         <v>0.6666666666666666</v>
       </c>
       <c r="L24">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1808,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.6621187800963082</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>825</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>825</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1834,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>421</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.6617647058823529</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1860,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.6530612244897959</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1886,15 +1940,15 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.6461538461538462</v>
+        <v>0.65625</v>
       </c>
       <c r="L28">
         <v>42</v>
@@ -1912,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.6428571428571429</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1938,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.6363636363636364</v>
+        <v>0.64</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1964,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.6296296296296297</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1990,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.6228571428571429</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L32">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="M32">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2016,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6078431372549019</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2042,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.6057692307692307</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L34">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2068,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35">
+        <v>0.6144578313253012</v>
+      </c>
+      <c r="L35">
         <v>51</v>
       </c>
-      <c r="K35">
-        <v>0.6056338028169014</v>
-      </c>
-      <c r="L35">
-        <v>43</v>
-      </c>
       <c r="M35">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2094,21 +2148,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.6041666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2120,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.5897435897435898</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2146,21 +2200,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.5748502994011976</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L38">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2172,21 +2226,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.5555555555555556</v>
+        <v>0.5808383233532934</v>
       </c>
       <c r="L39">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="M39">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2198,21 +2252,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.5526315789473685</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L40">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2224,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.55</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2250,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.5333333333333333</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2276,21 +2330,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.5277777777777778</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2302,12 +2356,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K44">
         <v>0.5263157894736842</v>
@@ -2333,16 +2387,16 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.5230769230769231</v>
+        <v>0.525</v>
       </c>
       <c r="L45">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2354,21 +2408,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.5213675213675214</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L46">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2380,21 +2434,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.5180722891566265</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2406,21 +2460,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.5112781954887218</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L48">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2432,21 +2486,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>65</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.5102040816326531</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2458,21 +2512,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K50">
-        <v>0.49</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L50">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M50">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2484,21 +2538,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K51">
-        <v>0.4821428571428572</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2510,21 +2564,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K52">
-        <v>0.4759036144578313</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L52">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M52">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2536,21 +2590,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K53">
-        <v>0.4754098360655737</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2562,21 +2616,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K54">
-        <v>0.4571428571428571</v>
+        <v>0.47</v>
       </c>
       <c r="L54">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2588,15 +2642,15 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K55">
-        <v>0.4516129032258064</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L55">
         <v>28</v>
@@ -2614,21 +2668,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K56">
-        <v>0.45</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M56">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2640,21 +2694,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K57">
-        <v>0.4444444444444444</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="L57">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2666,21 +2720,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K58">
-        <v>0.4363636363636363</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2692,21 +2746,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K59">
-        <v>0.4320987654320987</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L59">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2718,21 +2772,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K60">
-        <v>0.4285714285714285</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L60">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="M60">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2744,47 +2798,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K61">
-        <v>0.425531914893617</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L61">
+        <v>16</v>
+      </c>
+      <c r="M61">
+        <v>16</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>20</v>
-      </c>
-      <c r="M61">
-        <v>20</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>27</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K62">
-        <v>0.4146341463414634</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="L62">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2796,21 +2850,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K63">
-        <v>0.4135338345864661</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L63">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2822,47 +2876,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>78</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K64">
-        <v>0.4074074074074074</v>
+        <v>0.4211822660098522</v>
       </c>
       <c r="L64">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="M64">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>64</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K65">
-        <v>0.4068627450980392</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L65">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2874,21 +2928,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>242</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K66">
-        <v>0.3923444976076555</v>
+        <v>0.4046692607003891</v>
       </c>
       <c r="L66">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="M66">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2900,47 +2954,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>127</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K67">
-        <v>0.390625</v>
+        <v>0.4</v>
       </c>
       <c r="L67">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="N67">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>156</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K68">
-        <v>0.3846153846153846</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L68">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M68">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2952,47 +3006,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K69">
-        <v>0.3727272727272727</v>
+        <v>0.3808219178082192</v>
       </c>
       <c r="L69">
-        <v>41</v>
+        <v>278</v>
       </c>
       <c r="M69">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="N69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>69</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K70">
-        <v>0.3720930232558139</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L70">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M70">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3004,21 +3058,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K71">
-        <v>0.3695652173913043</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L71">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="M71">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3030,21 +3084,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K72">
-        <v>0.3695652173913043</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L72">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3056,21 +3110,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K73">
-        <v>0.3676470588235294</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L73">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M73">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3082,21 +3136,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K74">
-        <v>0.3669064748201439</v>
+        <v>0.3597122302158273</v>
       </c>
       <c r="L74">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M74">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3108,21 +3162,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K75">
-        <v>0.3617021276595745</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3134,21 +3188,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K76">
-        <v>0.3603603603603603</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="L76">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M76">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3160,15 +3214,15 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>71</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K77">
-        <v>0.3571428571428572</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L77">
         <v>15</v>
@@ -3186,21 +3240,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K78">
-        <v>0.3547945205479452</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="L78">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="M78">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3212,21 +3266,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>471</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K79">
-        <v>0.3333333333333333</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="L79">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M79">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3238,21 +3292,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K80">
-        <v>0.3333333333333333</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="L80">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M80">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3264,21 +3318,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K81">
-        <v>0.3294117647058823</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L81">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M81">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3290,21 +3344,21 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K82">
-        <v>0.3230769230769231</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L82">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M82">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3316,21 +3370,21 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K83">
-        <v>0.3154362416107382</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="L83">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="M83">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3342,21 +3396,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K84">
-        <v>0.3125</v>
+        <v>0.3110871905274489</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3368,21 +3422,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>44</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K85">
-        <v>0.310010764262648</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L85">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="M85">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3394,21 +3448,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>641</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K86">
-        <v>0.3069306930693069</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L86">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M86">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3420,21 +3474,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K87">
-        <v>0.3050847457627119</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L87">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M87">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3446,21 +3500,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K88">
-        <v>0.296875</v>
+        <v>0.28125</v>
       </c>
       <c r="L88">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M88">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3472,21 +3526,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K89">
-        <v>0.2941176470588235</v>
+        <v>0.28</v>
       </c>
       <c r="L89">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M89">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3498,21 +3552,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K90">
-        <v>0.2900662251655629</v>
+        <v>0.2798408488063661</v>
       </c>
       <c r="L90">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M90">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3521,24 +3575,24 @@
         <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K91">
-        <v>0.2878787878787879</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L91">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M91">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3550,21 +3604,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K92">
-        <v>0.2777777777777778</v>
+        <v>0.2705882352941176</v>
       </c>
       <c r="L92">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M92">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3576,67 +3630,67 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K93">
-        <v>0.2686567164179104</v>
+        <v>0.2641025641025641</v>
       </c>
       <c r="L93">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="M93">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>49</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K94">
-        <v>0.2672413793103448</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L94">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M94">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N94">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K95">
-        <v>0.2582781456953642</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L95">
         <v>39</v>
@@ -3654,21 +3708,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K96">
-        <v>0.2570532915360502</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L96">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="M96">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3680,73 +3734,73 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>237</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K97">
-        <v>0.25</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L97">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M97">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N97">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O97">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K98">
-        <v>0.2477535301668806</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L98">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="M98">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="N98">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>586</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K99">
-        <v>0.2476190476190476</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L99">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M99">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3758,21 +3812,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K100">
-        <v>0.2461538461538462</v>
+        <v>0.2477064220183486</v>
       </c>
       <c r="L100">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M100">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3784,21 +3838,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K101">
-        <v>0.2459016393442623</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L101">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="M101">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3810,47 +3864,47 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>92</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K102">
-        <v>0.2459016393442623</v>
+        <v>0.2410714285714286</v>
       </c>
       <c r="L102">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M102">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K103">
-        <v>0.2385321100917431</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L103">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M103">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3862,21 +3916,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K104">
-        <v>0.2352941176470588</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="L104">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M104">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3888,15 +3942,15 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K105">
-        <v>0.2325581395348837</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L105">
         <v>20</v>
@@ -3914,47 +3968,47 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K106">
-        <v>0.2298288508557457</v>
+        <v>0.234375</v>
       </c>
       <c r="L106">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="M106">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="N106">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O106">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>315</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K107">
-        <v>0.2248062015503876</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="L107">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M107">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3966,21 +4020,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>100</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K108">
-        <v>0.2236842105263158</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="L108">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M108">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3992,21 +4046,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K109">
-        <v>0.2207792207792208</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="L109">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M109">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -4018,21 +4072,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K110">
-        <v>0.2162162162162162</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L110">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M110">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -4044,21 +4098,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K111">
-        <v>0.2121212121212121</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="L111">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M111">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -4070,21 +4124,21 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K112">
-        <v>0.21</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="L112">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M112">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4096,21 +4150,21 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K113">
-        <v>0.2073170731707317</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="L113">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M113">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -4122,47 +4176,47 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>130</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K114">
-        <v>0.2068965517241379</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="L114">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M114">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N114">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O114">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>230</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K115">
-        <v>0.2065217391304348</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="L115">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M115">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4174,21 +4228,21 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>73</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K116">
-        <v>0.2045454545454546</v>
+        <v>0.2096219931271478</v>
       </c>
       <c r="L116">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M116">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4200,73 +4254,73 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>70</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K117">
-        <v>0.2039800995024875</v>
+        <v>0.2086720867208672</v>
       </c>
       <c r="L117">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="M117">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="N117">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O117">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>160</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K118">
-        <v>0.2021276595744681</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="L118">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M118">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N118">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K119">
-        <v>0.2016806722689076</v>
+        <v>0.2061068702290076</v>
       </c>
       <c r="L119">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M119">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4278,47 +4332,47 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>190</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K120">
-        <v>0.2</v>
+        <v>0.2060606060606061</v>
       </c>
       <c r="L120">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M120">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="N120">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O120">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120">
-        <v>216</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K121">
-        <v>0.2</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="L121">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M121">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4330,21 +4384,21 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K122">
-        <v>0.1987179487179487</v>
+        <v>0.2016806722689076</v>
       </c>
       <c r="L122">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M122">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4356,21 +4410,21 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K123">
-        <v>0.1951219512195122</v>
+        <v>0.1988636363636364</v>
       </c>
       <c r="L123">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M123">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N123">
         <v>0.97</v>
@@ -4382,21 +4436,21 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K124">
-        <v>0.192090395480226</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L124">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M124">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -4408,125 +4462,125 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K125">
-        <v>0.1912568306010929</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="L125">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M125">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="N125">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O125">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>296</v>
+        <v>216</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K126">
-        <v>0.1888111888111888</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="L126">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="M126">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="N126">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
-        <v>116</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K127">
-        <v>0.1837708830548926</v>
+        <v>0.1890547263681592</v>
       </c>
       <c r="L127">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="M127">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q127">
-        <v>342</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K128">
-        <v>0.1835443037974684</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="L128">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M128">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N128">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O128">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K129">
-        <v>0.1807228915662651</v>
+        <v>0.1789976133651551</v>
       </c>
       <c r="L129">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="M129">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -4538,21 +4592,21 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>68</v>
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K130">
-        <v>0.1792452830188679</v>
+        <v>0.1779141104294479</v>
       </c>
       <c r="L130">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M130">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -4564,21 +4618,21 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>87</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K131">
-        <v>0.1777777777777778</v>
+        <v>0.1772727272727273</v>
       </c>
       <c r="L131">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="M131">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -4590,47 +4644,47 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>222</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K132">
-        <v>0.1755725190839695</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L132">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M132">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K133">
-        <v>0.1754385964912281</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L133">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M133">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N133">
         <v>1</v>
@@ -4642,47 +4696,47 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K134">
-        <v>0.1747572815533981</v>
+        <v>0.1734317343173432</v>
       </c>
       <c r="L134">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M134">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N134">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O134">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>170</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K135">
-        <v>0.1717791411042945</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="L135">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M135">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -4694,15 +4748,15 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>135</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K136">
-        <v>0.1688311688311688</v>
+        <v>0.1625</v>
       </c>
       <c r="L136">
         <v>26</v>
@@ -4720,47 +4774,47 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="10:17">
       <c r="J137" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K137">
-        <v>0.1681818181818182</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="L137">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="M137">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O137">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q137">
-        <v>366</v>
+        <v>174</v>
       </c>
     </row>
     <row r="138" spans="10:17">
       <c r="J138" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K138">
-        <v>0.1652173913043478</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="L138">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M138">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -4772,21 +4826,21 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="10:17">
       <c r="J139" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K139">
-        <v>0.1644736842105263</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="L139">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="M139">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -4798,15 +4852,15 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>381</v>
+        <v>97</v>
       </c>
     </row>
     <row r="140" spans="10:17">
       <c r="J140" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K140">
-        <v>0.1612903225806452</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L140">
         <v>15</v>
@@ -4824,21 +4878,21 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" spans="10:17">
       <c r="J141" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K141">
-        <v>0.139344262295082</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="L141">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M141">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -4850,21 +4904,21 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="10:17">
       <c r="J142" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K142">
-        <v>0.1370967741935484</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="L142">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M142">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -4876,21 +4930,21 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>214</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="10:17">
       <c r="J143" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K143">
-        <v>0.1351351351351351</v>
+        <v>0.1370967741935484</v>
       </c>
       <c r="L143">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M143">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -4902,47 +4956,47 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>160</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="10:17">
       <c r="J144" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K144">
-        <v>0.1348600508905853</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="L144">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="M144">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="N144">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O144">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q144">
-        <v>340</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="10:17">
       <c r="J145" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K145">
-        <v>0.126984126984127</v>
+        <v>0.130718954248366</v>
       </c>
       <c r="L145">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M145">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -4954,64 +5008,64 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>110</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="10:17">
       <c r="J146" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K146">
-        <v>0.1251167133520075</v>
+        <v>0.124765478424015</v>
       </c>
       <c r="L146">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M146">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="N146">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O146">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P146" t="b">
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="147" spans="10:17">
       <c r="J147" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K147">
-        <v>0.1248206599713056</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="L147">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="M147">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="N147">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O147">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q147">
-        <v>610</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="10:17">
       <c r="J148" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K148">
         <v>0.1214285714285714</v>
@@ -5037,42 +5091,42 @@
     </row>
     <row r="149" spans="10:17">
       <c r="J149" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K149">
-        <v>0.119047619047619</v>
+        <v>0.1192528735632184</v>
       </c>
       <c r="L149">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="M149">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="N149">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O149">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q149">
-        <v>111</v>
+        <v>613</v>
       </c>
     </row>
     <row r="150" spans="10:17">
       <c r="J150" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K150">
-        <v>0.1176470588235294</v>
+        <v>0.1171548117154812</v>
       </c>
       <c r="L150">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M150">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -5084,21 +5138,21 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>135</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="10:17">
       <c r="J151" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K151">
-        <v>0.1176470588235294</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="L151">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M151">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -5110,21 +5164,21 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="10:17">
       <c r="J152" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K152">
-        <v>0.1156462585034014</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="L152">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M152">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N152">
         <v>1</v>
@@ -5136,475 +5190,475 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153" spans="10:17">
       <c r="J153" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K153">
-        <v>0.1082802547770701</v>
+        <v>0.1096938775510204</v>
       </c>
       <c r="L153">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M153">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N153">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="O153">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P153" t="b">
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>140</v>
+        <v>349</v>
       </c>
     </row>
     <row r="154" spans="10:17">
       <c r="J154" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K154">
-        <v>0.1056338028169014</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="L154">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M154">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O154">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q154">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="10:17">
       <c r="J155" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K155">
-        <v>0.0989010989010989</v>
+        <v>0.1070110701107011</v>
       </c>
       <c r="L155">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M155">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N155">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O155">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P155" t="b">
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>164</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="10:17">
       <c r="J156" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K156">
-        <v>0.09441233140655106</v>
+        <v>0.1</v>
       </c>
       <c r="L156">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="M156">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="N156">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O156">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q156">
-        <v>470</v>
+        <v>135</v>
       </c>
     </row>
     <row r="157" spans="10:17">
       <c r="J157" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K157">
-        <v>0.09141274238227147</v>
+        <v>0.09981515711645102</v>
       </c>
       <c r="L157">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M157">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N157">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O157">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P157" t="b">
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>328</v>
+        <v>487</v>
       </c>
     </row>
     <row r="158" spans="10:17">
       <c r="J158" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K158">
-        <v>0.08872458410351201</v>
+        <v>0.09467455621301775</v>
       </c>
       <c r="L158">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="M158">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N158">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O158">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P158" t="b">
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>493</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="10:17">
       <c r="J159" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K159">
-        <v>0.08670520231213873</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="L159">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M159">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N159">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O159">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q159">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="10:17">
       <c r="J160" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K160">
-        <v>0.08487084870848709</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="L160">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M160">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N160">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O160">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P160" t="b">
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>248</v>
+        <v>376</v>
       </c>
     </row>
     <row r="161" spans="10:17">
       <c r="J161" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K161">
-        <v>0.0823937554206418</v>
+        <v>0.08434782608695653</v>
       </c>
       <c r="L161">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M161">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="N161">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O161">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P161" t="b">
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="162" spans="10:17">
       <c r="J162" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K162">
-        <v>0.07949790794979079</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L162">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M162">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="N162">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O162">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q162">
-        <v>220</v>
+        <v>476</v>
       </c>
     </row>
     <row r="163" spans="10:17">
       <c r="J163" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K163">
-        <v>0.07542579075425791</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="L163">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M163">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N163">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O163">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q163">
-        <v>380</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="10:17">
       <c r="J164" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K164">
-        <v>0.07432432432432433</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="L164">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M164">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N164">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="O164">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P164" t="b">
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>274</v>
+        <v>334</v>
       </c>
     </row>
     <row r="165" spans="10:17">
       <c r="J165" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K165">
-        <v>0.07122507122507123</v>
+        <v>0.06983240223463687</v>
       </c>
       <c r="L165">
         <v>25</v>
       </c>
       <c r="M165">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N165">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="O165">
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="P165" t="b">
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="10:17">
       <c r="J166" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K166">
-        <v>0.06705539358600583</v>
+        <v>0.06267806267806268</v>
       </c>
       <c r="L166">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M166">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N166">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="O166">
-        <v>0.07999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="P166" t="b">
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" spans="10:17">
       <c r="J167" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K167">
-        <v>0.05562913907284768</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="L167">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M167">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="N167">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O167">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q167">
-        <v>713</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168" spans="10:17">
       <c r="J168" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K168">
-        <v>0.05540166204986149</v>
+        <v>0.05119453924914676</v>
       </c>
       <c r="L168">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M168">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N168">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="O168">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="P168" t="b">
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>341</v>
+        <v>278</v>
       </c>
     </row>
     <row r="169" spans="10:17">
       <c r="J169" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K169">
-        <v>0.04914004914004914</v>
+        <v>0.04913678618857902</v>
       </c>
       <c r="L169">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M169">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N169">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="O169">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="P169" t="b">
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>387</v>
+        <v>716</v>
       </c>
     </row>
     <row r="170" spans="10:17">
       <c r="J170" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K170">
-        <v>0.02743484224965706</v>
+        <v>0.02472527472527472</v>
       </c>
       <c r="L170">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M170">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N170">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="O170">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="P170" t="b">
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
